--- a/双周计划/2018/哗啦啦实施部双周滚动计划（2018.06.11-06.15）-南京-顾鹏.xlsx
+++ b/双周计划/2018/哗啦啦实施部双周滚动计划（2018.06.11-06.15）-南京-顾鹏.xlsx
@@ -120,7 +120,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
-    <t xml:space="preserve">  </t>
+    <t xml:space="preserve">哗啦啦实施部门双周滚动计划  </t>
   </si>
   <si>
     <t>分公司名称： 南京</t>
@@ -309,10 +309,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -401,6 +401,153 @@
       <color rgb="FFFF0000"/>
       <name val="黑体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -411,153 +558,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF006100"/>
       <name val="微软雅黑"/>
@@ -610,55 +610,217 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,175 +832,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,39 +1039,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1087,21 +1054,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1123,11 +1075,59 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1163,13 +1163,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1178,425 +1178,425 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="46" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="46" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="46" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="46" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="46" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="46" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="46" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="46" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1972,8 +1972,8 @@
     <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
     <cellStyle name="差" xfId="8" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="10"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="11"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="10"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="11"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="12" builtinId="40"/>
     <cellStyle name="超链接" xfId="13" builtinId="8"/>
     <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="14"/>
@@ -2003,10 +2003,10 @@
     <cellStyle name="20% - 强调文字颜色 2 3" xfId="38"/>
     <cellStyle name="汇总" xfId="39" builtinId="25"/>
     <cellStyle name="好" xfId="40" builtinId="26"/>
-    <cellStyle name="适中" xfId="41" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="42"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="43"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="44"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="41"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="42"/>
+    <cellStyle name="适中" xfId="43" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="44"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="45" builtinId="46"/>
     <cellStyle name="强调文字颜色 1" xfId="46" builtinId="29"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="47" builtinId="30"/>
@@ -2033,15 +2033,15 @@
     <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="68"/>
     <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="69"/>
     <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="70"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="71"/>
-    <cellStyle name="常规 3" xfId="72"/>
+    <cellStyle name="常规 3" xfId="71"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="72"/>
     <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="73"/>
     <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="74"/>
     <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="75"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="76"/>
-    <cellStyle name="常规 4" xfId="77"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="78"/>
-    <cellStyle name="常规 4 2" xfId="79"/>
+    <cellStyle name="常规 4" xfId="76"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="77"/>
+    <cellStyle name="常规 4 2" xfId="78"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="79"/>
     <cellStyle name="20% - 强调文字颜色 5 2" xfId="80"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="81"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="82"/>
@@ -2084,8 +2084,8 @@
     <cellStyle name="40% - 强调文字颜色 6 2" xfId="119"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="120"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="121"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="122"/>
-    <cellStyle name="货币 2" xfId="123"/>
+    <cellStyle name="货币 2" xfId="122"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="123"/>
     <cellStyle name="40% - 强调文字颜色 6 3" xfId="124"/>
     <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="125"/>
     <cellStyle name="常规 2" xfId="126"/>
@@ -2103,10 +2103,10 @@
     <cellStyle name="常规 4 2 2" xfId="138"/>
     <cellStyle name="常规 4 2 2 2" xfId="139"/>
     <cellStyle name="常规 5" xfId="140"/>
-    <cellStyle name="常规 6 2" xfId="141"/>
-    <cellStyle name="注释 2" xfId="142"/>
-    <cellStyle name="常规 6 2 2" xfId="143"/>
-    <cellStyle name="注释 2 2" xfId="144"/>
+    <cellStyle name="注释 2" xfId="141"/>
+    <cellStyle name="常规 6 2" xfId="142"/>
+    <cellStyle name="注释 2 2" xfId="143"/>
+    <cellStyle name="常规 6 2 2" xfId="144"/>
     <cellStyle name="常规_办公室" xfId="145"/>
     <cellStyle name="好 2" xfId="146"/>
     <cellStyle name="货币 2 2" xfId="147"/>
@@ -2413,8 +2413,8 @@
   </sheetPr>
   <dimension ref="B1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
